--- a/2022_forecast/text/model_averaging/model_summary_table_model_averaging_AICc.xlsx
+++ b/2022_forecast/text/model_averaging/model_summary_table_model_averaging_AICc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semiller1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\2022_forecast\text\model_averaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19DAF52-38D4-4540-9CCF-261A51706CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0568F39F-E4FF-43C7-B695-863CCEB9D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_summary_table_test" sheetId="1" r:id="rId1"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
